--- a/tables/xlsx/WorldAndStage/Mimisbrunnr.xlsx
+++ b/tables/xlsx/WorldAndStage/Mimisbrunnr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\Projects\Planetarium\NineChronicles\tables\xlsx\WorldAndStage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718D2AB8-0E6F-4208-9D73-4ACA003E7568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62DFD1C-0FDF-40DF-995F-959EFA962C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5805" yWindow="3735" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,16 +63,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -80,34 +100,97 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -118,21 +201,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{81EA34FD-4156-45B4-8AC9-83D2A6E171EB}" name="MimisbrunnrSheet" displayName="MimisbrunnrSheet" ref="A1:F21" totalsRowShown="0">
-  <autoFilter ref="A1:F21" xr:uid="{81EA34FD-4156-45B4-8AC9-83D2A6E171EB}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{7C17B787-1E6C-4EB8-9954-167E95BF0633}" name="id"/>
-    <tableColumn id="2" xr3:uid="{0785767A-FD1D-4B19-B4C7-9FDBEE621527}" name="elemental_type_1" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{9B2E634C-605E-42DE-88DF-89F49A18C49E}" name="elemental_type_2" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{073E72A8-5836-464A-9CD9-893DFB807ED9}" name="elemental_type_3" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{398F3192-CCF0-4D66-8361-A6ADF4D9FED3}" name="elemental_type_4" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{3658B1FB-94B0-40A9-9ADF-AF94EBA33635}" name="elemental_type_5" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,7 +469,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,430 +479,427 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>10000001</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="5">
         <v>10000002</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>10000003</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>10000004</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>10000005</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>10000006</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>10000007</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>10000008</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>10000009</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>10000010</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>10000011</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>10000012</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="B13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>10000013</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>10000014</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>10000015</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>10000016</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="B17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>10000017</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>10000018</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="B19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>10000019</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>10000020</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="B21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="9" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
